--- a/BalanceSheet/AON_bal.xlsx
+++ b/BalanceSheet/AON_bal.xlsx
@@ -3747,10 +3747,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>226200000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>225500000.0</v>
@@ -4003,10 +4001,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>6441000000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>7631000000.0</v>
@@ -4132,10 +4128,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>7263000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>8925000000.0</v>
